--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P04_trail11 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P04_trail11 Features.xlsx
@@ -4010,7 +4010,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4021,29 +4021,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4064,115 +4062,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4189,72 +4177,66 @@
         <v>6.912083395996571e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.3703532332290695</v>
+        <v>2.306408023042012e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.053956779080041</v>
+        <v>4.093289855390303e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.306408023042012e-07</v>
+        <v>-0.03122642493900472</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.093289855390303e-06</v>
+        <v>0.2062243086201568</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.03122642493900472</v>
+        <v>0.04349955919915672</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2062243086201568</v>
+        <v>1.769884169802755</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.04349955919915672</v>
+        <v>1.726307381738505</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.71549510613067</v>
+        <v>4.056280513593203</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.726307381738505</v>
+        <v>2.622168276560287e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.056280513593203</v>
+        <v>95706118.11473569</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.622168276560287e-15</v>
+        <v>1.220471300936776e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>95706118.11473569</v>
+        <v>24.01817261517352</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.220471300936776e-06</v>
+        <v>0.0001475262484427424</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>24.01817261517352</v>
+        <v>10.84059285218965</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001475262484427424</v>
+        <v>1.076993329253135</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.84059285218965</v>
+        <v>0.01733705655096934</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.076993329253135</v>
+        <v>2.72883077599414</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01733705655096934</v>
+        <v>0.9499325312850577</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.72883077599414</v>
+        <v>1.681123935487653</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9499325312850577</v>
+        <v>34</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.681123935487653</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2260368802522081</v>
       </c>
     </row>
@@ -4269,72 +4251,66 @@
         <v>6.783026003492835e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.4225124807367553</v>
+        <v>2.306408023042012e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.9466654568513388</v>
+        <v>4.09124973099597e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.306408023042012e-07</v>
+        <v>-0.02894155979880242</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.09124973099597e-06</v>
+        <v>0.2096693336008615</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.02894155979880242</v>
+        <v>0.04479875617344764</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2096693336008615</v>
+        <v>1.803106215863855</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.04479875617344764</v>
+        <v>1.816536164342773</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.752927006487252</v>
+        <v>4.149070984779224</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.816536164342773</v>
+        <v>2.506194607057922e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.149070984779224</v>
+        <v>99934856.35420896</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.506194607057922e-15</v>
+        <v>1.178092286473598e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>99934856.35420896</v>
+        <v>25.02930417535059</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.178092286473598e-06</v>
+        <v>0.000150691254652243</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>25.02930417535059</v>
+        <v>9.611644005024763</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.000150691254652243</v>
+        <v>1.164435442695712</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.611644005024763</v>
+        <v>0.01392141573464703</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.164435442695712</v>
+        <v>2.839209215176647</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01392141573464703</v>
+        <v>0.952958792650641</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.839209215176647</v>
+        <v>1.673595116695898</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.952958792650641</v>
+        <v>54</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.673595116695898</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2211805003310008</v>
       </c>
     </row>
@@ -4349,72 +4325,66 @@
         <v>6.655316748810463e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.4755160696683615</v>
+        <v>2.306408023042012e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.8240694205769068</v>
+        <v>4.089310105525709e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.306408023042012e-07</v>
+        <v>-0.02905583503846098</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.089310105525709e-06</v>
+        <v>0.2137582919389996</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.02905583503846098</v>
+        <v>0.04653693823344642</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2137582919389996</v>
+        <v>1.841493650525635</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04653693823344642</v>
+        <v>1.647747244590982</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.802790125726738</v>
+        <v>4.759356383994283</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.647747244590982</v>
+        <v>1.846547498725461e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.759356383994283</v>
+        <v>132572683.9570098</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.846547498725461e-15</v>
+        <v>8.971169829936737e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>132572683.9570098</v>
+        <v>32.45402609016969</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>8.971169829936737e-07</v>
+        <v>0.0001558073300427293</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>32.45402609016969</v>
+        <v>7.786662319139123</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001558073300427293</v>
+        <v>1.552051184307141</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.786662319139123</v>
+        <v>0.009446927185222104</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.552051184307141</v>
+        <v>2.939961680355949</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.009446927185222104</v>
+        <v>0.9550522642469037</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.939961680355949</v>
+        <v>1.611403925127792</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9550522642469037</v>
+        <v>54</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.611403925127792</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2298140758725594</v>
       </c>
     </row>
@@ -4429,72 +4399,66 @@
         <v>6.51717227304334e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.528230412848835</v>
+        <v>2.306408023042012e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.684546654907078</v>
+        <v>4.087352095523999e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.306408023042012e-07</v>
+        <v>-0.03048795424934927</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.087352095523999e-06</v>
+        <v>0.2181999358245943</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.03048795424934927</v>
+        <v>0.0485407023717396</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2181999358245943</v>
+        <v>1.850251517556071</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.0485407023717396</v>
+        <v>1.819415264990198</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.82152562891082</v>
+        <v>3.759097481653304</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.819415264990198</v>
+        <v>1.1408233845128e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.759097481653304</v>
+        <v>199829248.3384061</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.1408233845128e-15</v>
+        <v>5.906106786062825e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>199829248.3384061</v>
+        <v>45.55504964711051</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>5.906106786062825e-07</v>
+        <v>0.0001471420242716268</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>45.55504964711051</v>
+        <v>7.610590793182254</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001471420242716268</v>
+        <v>1.462296704479719</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.610590793182254</v>
+        <v>0.008522626757461316</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.462296704479719</v>
+        <v>2.967621056939304</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.008522626757461316</v>
+        <v>0.9550228796346275</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.967621056939304</v>
+        <v>1.592042723838298</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9550228796346275</v>
+        <v>54</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.592042723838298</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.259924935373692</v>
       </c>
     </row>
@@ -4509,72 +4473,66 @@
         <v>6.374122589058394e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.5832781565524172</v>
+        <v>2.306408023042012e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.5255610201019425</v>
+        <v>4.085368708766058e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.306408023042012e-07</v>
+        <v>-0.0306273584829754</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.085368708766058e-06</v>
+        <v>0.2229418362695561</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.0306273584829754</v>
+        <v>0.05063948742076402</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2229418362695561</v>
+        <v>1.852802233089889</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.05063948742076402</v>
+        <v>2.100122835255386</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.828330979644577</v>
+        <v>3.794881381994563</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.100122835255386</v>
+        <v>1.076581904076503e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.794881381994563</v>
+        <v>206659988.116938</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.076581904076503e-15</v>
+        <v>5.728613492201072e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>206659988.116938</v>
+        <v>45.97903750418475</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>5.728613492201072e-07</v>
+        <v>0.0001479559203682925</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>45.97903750418475</v>
+        <v>8.763178540857025</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001479559203682925</v>
+        <v>1.321341366580032</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.763178540857025</v>
+        <v>0.01136202310426312</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.321341366580032</v>
+        <v>2.834085442962701</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01136202310426312</v>
+        <v>0.9564933427705777</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.834085442962701</v>
+        <v>1.577332620799805</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9564933427705777</v>
+        <v>63</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.577332620799805</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2623282917206987</v>
       </c>
     </row>
@@ -4589,72 +4547,66 @@
         <v>6.24872938008388e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.6455157732314752</v>
+        <v>2.306408023042012e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.3482118129325507</v>
+        <v>4.083490444367927e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.306408023042012e-07</v>
+        <v>-0.02872956255950715</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.083490444367927e-06</v>
+        <v>0.2262254228460646</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.02872956255950715</v>
+        <v>0.0519989587113159</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2262254228460646</v>
+        <v>1.850064315392528</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.0519989587113159</v>
+        <v>2.115516227964167</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.8258792883273</v>
+        <v>3.706674377469089</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.115516227964167</v>
+        <v>1.128429977002976e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.706674377469089</v>
+        <v>198467136.821496</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.128429977002976e-15</v>
+        <v>5.962915006307359e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>198467136.821496</v>
+        <v>44.44795901313879</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>5.962915006307359e-07</v>
+        <v>0.0001501140394812337</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>44.44795901313879</v>
+        <v>9.245876753982797</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001501140394812337</v>
+        <v>1.291611065545508</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.245876753982797</v>
+        <v>0.0128326843485903</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.291611065545508</v>
+        <v>2.722371053913025</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0128326843485903</v>
+        <v>0.9562628510258191</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.722371053913025</v>
+        <v>1.558407710655598</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9562628510258191</v>
+        <v>45</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.558407710655598</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2513439867786852</v>
       </c>
     </row>
@@ -4669,72 +4621,66 @@
         <v>6.155802056737226e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.714797641211518</v>
+        <v>2.306408023042012e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.1687750086562341</v>
+        <v>4.081796050312936e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.306408023042012e-07</v>
+        <v>-0.02578841747386703</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4.081796050312936e-06</v>
+        <v>0.2273900413825107</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.02578841747386703</v>
+        <v>0.05236520790333581</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2273900413825107</v>
+        <v>1.841111043232174</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.05236520790333581</v>
+        <v>2.069693811944287</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.815635734736427</v>
+        <v>3.689423792062228</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.069693811944287</v>
+        <v>1.139007014189513e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.689423792062228</v>
+        <v>196705751.2802979</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.139007014189513e-15</v>
+        <v>6.005156407510958e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>196705751.2802979</v>
+        <v>44.07177219740929</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>6.005156407510958e-07</v>
+        <v>0.0001454552148298717</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>44.07177219740929</v>
+        <v>8.873850124946859</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001454552148298717</v>
+        <v>1.307822618100939</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.873850124946859</v>
+        <v>0.01145390231592568</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.307822618100939</v>
+        <v>2.795869012722707</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01145390231592568</v>
+        <v>0.9557080491110137</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.795869012722707</v>
+        <v>1.572197157423232</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9557080491110137</v>
+        <v>52</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.572197157423232</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2593127043468163</v>
       </c>
     </row>
@@ -4749,72 +4695,66 @@
         <v>6.097391935178628e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.7838702211840497</v>
+        <v>2.306408023042012e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.0126425118575777</v>
+        <v>4.08033593324142e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.306408023042012e-07</v>
+        <v>-0.02180672274065322</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>4.08033593324142e-06</v>
+        <v>0.2267444780459283</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.02180672274065322</v>
+        <v>0.05188291775028137</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2267444780459283</v>
+        <v>1.839674489240761</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.05188291775028137</v>
+        <v>1.921091727199184</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.810684690891908</v>
+        <v>3.72654611935057</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.921091727199184</v>
+        <v>1.116427398168211e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.72654611935057</v>
+        <v>199780249.9627866</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.116427398168211e-15</v>
+        <v>5.917893445694553e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>199780249.9627866</v>
+        <v>44.55901585417811</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>5.917893445694553e-07</v>
+        <v>0.0001371298551499837</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>44.55901585417811</v>
+        <v>8.32585990408495</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001371298551499837</v>
+        <v>1.374345687789599</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.32585990408495</v>
+        <v>0.009505833762129202</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.374345687789599</v>
+        <v>2.939991547092426</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.009505833762129202</v>
+        <v>0.9567895628862459</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.939991547092426</v>
+        <v>1.589213113742455</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9567895628862459</v>
+        <v>52</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.589213113742455</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2972940702530528</v>
       </c>
     </row>
@@ -4829,72 +4769,66 @@
         <v>6.065903490126516e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.8443834842030811</v>
+        <v>2.306408023042012e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.1055153256810284</v>
+        <v>4.079141528576394e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.306408023042012e-07</v>
+        <v>-0.01751515136465818</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>4.079141528576394e-06</v>
+        <v>0.2255676470094593</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.01751515136465818</v>
+        <v>0.05118383026517477</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2255676470094593</v>
+        <v>1.839568160006001</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.05118383026517477</v>
+        <v>1.87215653219549</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.812114261147916</v>
+        <v>3.855320106158124</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.87215653219549</v>
+        <v>1.043091965521177e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.855320106158124</v>
+        <v>220308810.0523736</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.043091965521177e-15</v>
+        <v>5.386088292558847e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>220308810.0523736</v>
+        <v>50.62748220946185</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>5.386088292558847e-07</v>
+        <v>0.00012309695428637</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>50.62748220946185</v>
+        <v>7.297485436319979</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.00012309695428637</v>
+        <v>1.5753101583562</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.297485436319979</v>
+        <v>0.006555318259363055</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.5753101583562</v>
+        <v>3.206287511841759</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.006555318259363055</v>
+        <v>0.9580152687626643</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.206287511841759</v>
+        <v>1.569055349844546</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9580152687626643</v>
+        <v>52</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.569055349844546</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.3477559048242522</v>
       </c>
     </row>
@@ -4909,72 +4843,66 @@
         <v>6.049960927672708e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.8925737667933851</v>
+        <v>2.306408023042012e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.1893176235862342</v>
+        <v>4.078212754529461e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2.306408023042012e-07</v>
+        <v>-0.01300881125440198</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>4.078212754529461e-06</v>
+        <v>0.2249436679382385</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.01300881125440198</v>
+        <v>0.0507654170328412</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.2249436679382385</v>
+        <v>1.840366218912578</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.0507654170328412</v>
+        <v>1.848812730847279</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.811205704613655</v>
+        <v>3.940723826245727</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.848812730847279</v>
+        <v>1.020928995541903e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.940723826245727</v>
+        <v>233731291.3453872</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.020928995541903e-15</v>
+        <v>5.089497923984138e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>233731291.3453872</v>
+        <v>55.77367420559332</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>5.089497923984138e-07</v>
+        <v>0.0001174949552389233</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>55.77367420559332</v>
+        <v>7.040114423259185</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001174949552389233</v>
+        <v>1.503589998264188</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.040114423259185</v>
+        <v>0.005823427268820232</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.503589998264188</v>
+        <v>3.298260995086124</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.005823427268820232</v>
+        <v>0.9569943037961799</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.298260995086124</v>
+        <v>1.552692509815178</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9569943037961799</v>
+        <v>52</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.552692509815178</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.3562046748475247</v>
       </c>
     </row>
@@ -4989,72 +4917,66 @@
         <v>6.041739551250425e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.9247365439557215</v>
+        <v>2.306408023042012e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.2425276289485248</v>
+        <v>4.077608297224173e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2.306408023042012e-07</v>
+        <v>-0.006570778238591484</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>4.077608297224173e-06</v>
+        <v>0.2250273483554771</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.006570778238591484</v>
+        <v>0.0506735726619857</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.2250273483554771</v>
+        <v>1.847720149544821</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.0506735726619857</v>
+        <v>1.929458123290134</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.817775779976608</v>
+        <v>4.190088684516105</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.929458123290134</v>
+        <v>1.170701510108216e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.190088684516105</v>
+        <v>203336857.4337241</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.170701510108216e-15</v>
+        <v>5.853600040205804e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>203336857.4337241</v>
+        <v>48.40368133255969</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>5.853600040205804e-07</v>
+        <v>0.0001252579135615204</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>48.40368133255969</v>
+        <v>8.482040548069223</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001252579135615204</v>
+        <v>1.221332102549629</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.482040548069223</v>
+        <v>0.009011682076628509</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.221332102549629</v>
+        <v>3.169632024063797</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.009011682076628509</v>
+        <v>0.9554248598784756</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.169632024063797</v>
+        <v>1.57887511303146</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9554248598784756</v>
+        <v>52</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.57887511303146</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.3248719068073738</v>
       </c>
     </row>
@@ -5069,72 +4991,66 @@
         <v>6.039767462025758e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.9324830703165035</v>
+        <v>2.306408023042012e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.2554174205850961</v>
+        <v>4.077466442778884e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2.306408023042012e-07</v>
+        <v>0.00229227008210059</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>4.077466442778884e-06</v>
+        <v>0.2274473164364994</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.00229227008210059</v>
+        <v>0.05172428134765261</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.2274473164364994</v>
+        <v>1.874918385125051</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.05172428134765261</v>
+        <v>1.780909101708117</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.856616571511353</v>
+        <v>4.011084018032309</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.780909101708117</v>
+        <v>1.618878910735378e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.011084018032309</v>
+        <v>146447545.4198373</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.618878910735378e-15</v>
+        <v>8.177256876689634e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>146447545.4198373</v>
+        <v>34.71990749546424</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>8.177256876689634e-07</v>
+        <v>0.0001304481642552169</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>34.71990749546424</v>
+        <v>9.937888077621032</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001304481642552169</v>
+        <v>1.096502391248991</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.937888077621032</v>
+        <v>0.01288327195525373</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.096502391248991</v>
+        <v>3.066242358648887</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01288327195525373</v>
+        <v>0.9557815927011094</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.066242358648887</v>
+        <v>1.507889853115284</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9557815927011094</v>
+        <v>51</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.507889853115284</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.3313167102969781</v>
       </c>
     </row>
@@ -5149,72 +5065,66 @@
         <v>6.052826323365606e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.9054746498557156</v>
+        <v>2.306408023042012e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.2001622177303743</v>
+        <v>4.077939959069383e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.306408023042012e-07</v>
+        <v>0.01393410471112468</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.077939959069383e-06</v>
+        <v>0.2343939926981268</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.01393410471112468</v>
+        <v>0.05510808649209039</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.2343939926981268</v>
+        <v>1.874504100104771</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.05510808649209039</v>
+        <v>1.657281678187503</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.847632541343333</v>
+        <v>4.297618627333988</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.657281678187503</v>
+        <v>2.160409111484795e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.297618627333988</v>
+        <v>108497625.2811991</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.160409111484795e-15</v>
+        <v>1.104124185640539e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>108497625.2811991</v>
+        <v>25.4317628858428</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.104124185640539e-06</v>
+        <v>0.0001506730725791991</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>25.4317628858428</v>
+        <v>11.85581316711322</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001506730725791991</v>
+        <v>1.091912788160716</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>11.85581316711322</v>
+        <v>0.02117865316561812</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.091912788160716</v>
+        <v>2.964796337589429</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.02117865316561812</v>
+        <v>0.9529001680680459</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.964796337589429</v>
+        <v>1.513205642093796</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9529001680680459</v>
+        <v>51</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.513205642093796</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.3238302065461232</v>
       </c>
     </row>
@@ -5229,72 +5139,66 @@
         <v>6.114094961671809e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.8401786864906874</v>
+        <v>2.306408023042012e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.03042921509631924</v>
+        <v>4.07922265729401e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2.306408023042012e-07</v>
+        <v>0.02888177738905285</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>4.07922265729401e-06</v>
+        <v>0.2494086549655571</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.02888177738905285</v>
+        <v>0.06298588151831638</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.2494086549655571</v>
+        <v>1.861879562555475</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.06298588151831638</v>
+        <v>1.630558667056356</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.83395795133953</v>
+        <v>4.14444854237456</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.630558667056356</v>
+        <v>3.383822783272951e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.14444854237456</v>
+        <v>65458862.00825547</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>3.383822783272951e-15</v>
+        <v>1.813090502103582e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>65458862.00825547</v>
+        <v>14.49921574123861</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.813090502103582e-06</v>
+        <v>0.0001898060492756606</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>14.49921574123861</v>
+        <v>12.71558437549848</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001898060492756606</v>
+        <v>1.136060998042047</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>12.71558437549848</v>
+        <v>0.03068899720848267</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.136060998042047</v>
+        <v>2.80904486244888</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.03068899720848267</v>
+        <v>0.9535578118620095</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.80904486244888</v>
+        <v>1.544719486028528</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9535578118620095</v>
+        <v>46</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.544719486028528</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.28521548658565</v>
       </c>
     </row>
@@ -5309,72 +5213,66 @@
         <v>6.301311639718154e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.779394304989156</v>
+        <v>2.416750133438823e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.1914971509598691</v>
+        <v>4.081532660832751e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2.416750133438823e-07</v>
+        <v>0.04559125683527168</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>4.081532660832751e-06</v>
+        <v>0.2689620579912689</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.04559125683527168</v>
+        <v>0.07435660601175004</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.2689620579912689</v>
+        <v>1.768419141126129</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.07435660601175004</v>
+        <v>1.711349638988332</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.721685003578071</v>
+        <v>3.95157962721827</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.711349638988332</v>
+        <v>3.722199430582978e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.95157962721827</v>
+        <v>61129920.86031005</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>3.722199430582978e-15</v>
+        <v>1.874807200738742e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>61129920.86031005</v>
+        <v>13.90936505478035</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.874807200738742e-06</v>
+        <v>0.0002091666576422422</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>13.90936505478035</v>
+        <v>13.61199188752975</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0002091666576422422</v>
+        <v>1.063945666596652</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>13.61199188752975</v>
+        <v>0.03875572091930603</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.063945666596652</v>
+        <v>2.590815177090244</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.03875572091930603</v>
+        <v>0.9503592439297796</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.590815177090244</v>
+        <v>1.642542122698031</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9503592439297796</v>
+        <v>43</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.642542122698031</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2594583359031835</v>
       </c>
     </row>
@@ -5389,72 +5287,66 @@
         <v>6.692027400339951e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.8195166890761885</v>
+        <v>2.993567564205174e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.1010311309045386</v>
+        <v>4.084938926415121e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>2.993567564205174e-07</v>
+        <v>0.05846252361787022</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4.084938926415121e-06</v>
+        <v>0.2736452737330477</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.05846252361787022</v>
+        <v>0.07826186609339707</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.2736452737330477</v>
+        <v>1.717552933929601</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.07826186609339707</v>
+        <v>1.617908237639858</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.657025443295769</v>
+        <v>5.203288452765689</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.617908237639858</v>
+        <v>5.293821665687112e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>5.203288452765689</v>
+        <v>43260739.34623241</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>5.293821665687112e-15</v>
+        <v>2.615517733643262e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>43260739.34623241</v>
+        <v>9.907342613972416</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.615517733643262e-06</v>
+        <v>0.0002202404028424703</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>9.907342613972416</v>
+        <v>10.86653897980015</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0002202404028424703</v>
+        <v>1.44712260225893</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>10.86653897980015</v>
+        <v>0.02600635443686081</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.44712260225893</v>
+        <v>2.763410737673343</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.02600635443686081</v>
+        <v>0.9464101964522363</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.763410737673343</v>
+        <v>1.786960263642873</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9464101964522363</v>
+        <v>43</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.786960263642873</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1913789887382428</v>
       </c>
     </row>
@@ -5469,72 +5361,66 @@
         <v>7.270195871541749e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.9600243282516919</v>
+        <v>3.417155976728434e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.3830997812308841</v>
+        <v>4.089246259605198e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>3.417155976728434e-07</v>
+        <v>0.0639386744403659</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>4.089246259605198e-06</v>
+        <v>0.2606709053386326</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.0639386744403659</v>
+        <v>0.07202321713614968</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.2606709053386326</v>
+        <v>1.712980871115686</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.07202321713614968</v>
+        <v>1.622447193541017</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.649538063544022</v>
+        <v>4.400216151672199</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.622447193541017</v>
+        <v>7.778239317232841e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.400216151672199</v>
+        <v>30370882.71430503</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>7.778239317232841e-15</v>
+        <v>3.729747663540764e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>30370882.71430503</v>
+        <v>7.174574183974837</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>3.729747663540764e-06</v>
+        <v>0.0002019687821277415</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>7.174574183974837</v>
+        <v>9.329925791947298</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0002019687821277415</v>
+        <v>1.717467342833981</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>9.329925791947298</v>
+        <v>0.01758088064900264</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.717467342833981</v>
+        <v>2.886021718583581</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01758088064900264</v>
+        <v>0.9467628969650487</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.886021718583581</v>
+        <v>1.799939901287276</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9467628969650487</v>
+        <v>22</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.799939901287276</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.1560080005110838</v>
       </c>
     </row>
@@ -5549,72 +5435,66 @@
         <v>7.950672699641215e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1.10212377719121</v>
+        <v>3.679598104750841e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0.8419069272918307</v>
+        <v>4.094127875305334e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>3.679598104750841e-07</v>
+        <v>0.06367320627697223</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>4.094127875305334e-06</v>
+        <v>0.2409465007712427</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.06367320627697223</v>
+        <v>0.06210719405044927</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.2409465007712427</v>
+        <v>1.696127799908702</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.06210719405044927</v>
+        <v>1.570461866453241</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.625916030972914</v>
+        <v>4.132419520270354</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.570461866453241</v>
+        <v>1.040468201935503e-14</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.132419520270354</v>
+        <v>22747903.1136592</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.040468201935503e-14</v>
+        <v>4.939123950810348e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>22747903.1136592</v>
+        <v>5.384080590071012</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>4.939123950810348e-06</v>
+        <v>0.0001723154227758595</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>5.384080590071012</v>
+        <v>9.526082115747483</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001723154227758595</v>
+        <v>1.380972763326702</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>9.526082115747483</v>
+        <v>0.01563697679293556</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.380972763326702</v>
+        <v>2.839052899767469</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01563697679293556</v>
+        <v>0.9437826485112143</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.839052899767469</v>
+        <v>1.789635865542301</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9437826485112143</v>
+        <v>22</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.789635865542301</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.1518827156284981</v>
       </c>
     </row>
@@ -5629,72 +5509,66 @@
         <v>8.629798638442314e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1.174420170717944</v>
+        <v>3.741979910547443e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0.9758140504729789</v>
+        <v>4.099249533475556e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>3.741979910547443e-07</v>
+        <v>0.05934223990441352</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>4.099249533475556e-06</v>
+        <v>0.2221137012498618</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.05934223990441352</v>
+        <v>0.05285627447243915</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.2221137012498618</v>
+        <v>1.668346366082837</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.05285627447243915</v>
+        <v>1.596633146721979</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.599315988621603</v>
+        <v>3.716072377697497</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.596633146721979</v>
+        <v>1.308704384834958e-14</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>3.716072377697497</v>
+        <v>18053965.30831842</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.308704384834958e-14</v>
+        <v>6.187166200545818e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>18053965.30831842</v>
+        <v>4.265665188492731</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>6.187166200545818e-06</v>
+        <v>0.00017063402075548</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>4.265665188492731</v>
+        <v>10.68570890702703</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.00017063402075548</v>
+        <v>1.123345284530592</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>10.68570890702703</v>
+        <v>0.01948373898737555</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.123345284530592</v>
+        <v>2.64761763373515</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01948373898737555</v>
+        <v>0.9427423826482492</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.64761763373515</v>
+        <v>1.793469581149616</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9427423826482492</v>
+        <v>22</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.793469581149616</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.15272605061083</v>
       </c>
     </row>
@@ -5709,72 +5583,66 @@
         <v>9.226769431041564e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1.169270839628592</v>
+        <v>3.741979910547443e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0.8110182506496892</v>
+        <v>4.104285495873432e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>3.741979910547443e-07</v>
+        <v>0.05347452072673111</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>4.104285495873432e-06</v>
+        <v>0.2083521658953138</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.05347452072673111</v>
+        <v>0.0462699616332219</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.2083521658953138</v>
+        <v>1.638160859899612</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.0462699616332219</v>
+        <v>1.608545337866653</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.560125815277433</v>
+        <v>3.681476206060693</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.608545337866653</v>
+        <v>1.333416699817649e-14</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>3.681476206060693</v>
+        <v>18900055.7833528</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.333416699817649e-14</v>
+        <v>5.869357882464966e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>18900055.7833528</v>
+        <v>4.7631259100278</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>5.869357882464966e-06</v>
+        <v>0.0001813023387386908</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>4.7631259100278</v>
+        <v>11.82421221197931</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001813023387386908</v>
+        <v>1.060899417108545</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>11.82421221197931</v>
+        <v>0.02534824157459061</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.060899417108545</v>
+        <v>2.430476224912937</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.02534824157459061</v>
+        <v>0.9410254104365025</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.430476224912937</v>
+        <v>1.813315820916407</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9410254104365025</v>
+        <v>9</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.813315820916407</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.1535841242249768</v>
       </c>
     </row>
@@ -5789,72 +5657,66 @@
         <v>9.740905247501249e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1.122343006768306</v>
+        <v>3.741979910547443e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0.5352617287353088</v>
+        <v>4.109145959980999e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>3.741979910547443e-07</v>
+        <v>0.04944991697144094</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>4.109145959980999e-06</v>
+        <v>0.1976755217569535</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.04944991697144094</v>
+        <v>0.04152120856484252</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1976755217569535</v>
+        <v>1.63381699954961</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.04152120856484252</v>
+        <v>1.622150378449382</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.550210371502362</v>
+        <v>3.633215724645734</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.622150378449382</v>
+        <v>1.369075868093774e-14</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>3.633215724645734</v>
+        <v>18483788.39359622</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.369075868093774e-14</v>
+        <v>6.012071197605005e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>18483788.39359622</v>
+        <v>4.677453636633004</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>6.012071197605005e-06</v>
+        <v>0.0001923318827478976</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>4.677453636633004</v>
+        <v>11.15664313260685</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001923318827478976</v>
+        <v>1.182082264126049</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>11.15664313260685</v>
+        <v>0.02393968138306048</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.182082264126049</v>
+        <v>2.615457976107299</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.02393968138306048</v>
+        <v>0.9410680504455459</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.615457976107299</v>
+        <v>1.812019037467444</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9410680504455459</v>
+        <v>9</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.812019037467444</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.1414583314551372</v>
       </c>
     </row>
@@ -5869,72 +5731,66 @@
         <v>1.021033908673196e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>1.062405432787504</v>
+        <v>3.741979910547443e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>0.260806264532647</v>
+        <v>4.114001019079582e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>3.741979910547443e-07</v>
+        <v>0.04840876326411404</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>4.114001019079582e-06</v>
+        <v>0.1884297444325746</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.04840876326411404</v>
+        <v>0.03784846170180119</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1884297444325746</v>
+        <v>1.63326526763206</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.03784846170180119</v>
+        <v>1.56756983483792</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.549600902590792</v>
+        <v>3.537724798427508</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.56756983483792</v>
+        <v>1.443982048106369e-14</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>3.537724798427508</v>
+        <v>17464752.61885455</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.443982048106369e-14</v>
+        <v>6.362517261432042e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>17464752.61885455</v>
+        <v>4.404399157073399</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>6.362517261432042e-06</v>
+        <v>0.0002135373073873215</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>4.404399157073399</v>
+        <v>9.757519002463434</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0002135373073873215</v>
+        <v>1.512826051967171</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>9.757519002463434</v>
+        <v>0.02033071131295939</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.512826051967171</v>
+        <v>2.700622863229639</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.02033071131295939</v>
+        <v>0.9414996394110531</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.700622863229639</v>
+        <v>1.822674891997244</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9414996394110531</v>
+        <v>2</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.822674891997244</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.1303596415587989</v>
       </c>
     </row>
@@ -5949,72 +5805,66 @@
         <v>1.067773419741082e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1.005546777910224</v>
+        <v>3.883858031521413e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>0.03359322724569802</v>
+        <v>4.119140501588273e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>3.883858031521413e-07</v>
+        <v>0.05044350140028727</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>4.119140501588273e-06</v>
+        <v>0.1802762131657804</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.05044350140028727</v>
+        <v>0.03504038294105682</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1802762131657804</v>
+        <v>1.626975348137065</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.03504038294105682</v>
+        <v>1.574977841344402</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.54102993061224</v>
+        <v>3.429177937623208</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.574977841344402</v>
+        <v>1.536844205207876e-14</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.429177937623208</v>
+        <v>16650032.39623467</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.536844205207876e-14</v>
+        <v>6.661837193559426e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>16650032.39623467</v>
+        <v>4.260494506191054</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>6.661837193559426e-06</v>
+        <v>0.0001930515680507282</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>4.260494506191054</v>
+        <v>9.511792622520579</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001930515680507282</v>
+        <v>1.461616653403448</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.511792622520579</v>
+        <v>0.01746618596458867</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.461616653403448</v>
+        <v>2.765714256029828</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01746618596458867</v>
+        <v>0.9410150135043884</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.765714256029828</v>
+        <v>1.835593322244968</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9410150135043884</v>
+        <v>2</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.835593322244968</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.1346975955605731</v>
       </c>
     </row>
@@ -6029,72 +5879,66 @@
         <v>1.118219424078582e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.9632933067739939</v>
+        <v>4.160164335235702e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-0.1193115293692237</v>
+        <v>4.124832279259026e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>4.160164335235702e-07</v>
+        <v>0.05375240489798513</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>4.124832279259026e-06</v>
+        <v>0.1730827119244636</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.05375240489798513</v>
+        <v>0.03284219954635448</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1730827119244636</v>
+        <v>1.617314023207375</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.03284219954635448</v>
+        <v>1.556156142449568</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.525645229585455</v>
+        <v>3.420096740362037</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.556156142449568</v>
+        <v>1.545016438489232e-14</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>3.420096740362037</v>
+        <v>16337709.9809194</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>1.545016438489232e-14</v>
+        <v>6.735028253513111e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>16337709.9809194</v>
+        <v>4.123969734390396</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>6.735028253513111e-06</v>
+        <v>0.0001757349241126516</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>4.123969734390396</v>
+        <v>10.81028389313965</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001757349241126516</v>
+        <v>1.129009837209555</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>10.81028389313965</v>
+        <v>0.02053677650025263</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.129009837209555</v>
+        <v>2.608948122525673</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.02053677650025263</v>
+        <v>0.9404693466037612</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.608948122525673</v>
+        <v>1.835577647418074</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9404693466037612</v>
+        <v>2</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.835577647418074</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.1459402573026354</v>
       </c>
     </row>
@@ -6109,72 +5953,66 @@
         <v>1.17370216837378e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.9384318410343584</v>
+        <v>4.423829409602471e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-0.1985302602399943</v>
+        <v>4.131146433423812e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>4.423829409602471e-07</v>
+        <v>0.05598980338043254</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>4.131146433423812e-06</v>
+        <v>0.1657419616478734</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.05598980338043254</v>
+        <v>0.0306040556614564</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1657419616478734</v>
+        <v>1.539338242820602</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.0306040556614564</v>
+        <v>1.501850201647691</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.447659938098174</v>
+        <v>3.382513947628482</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.501850201647691</v>
+        <v>1.72007810827532e-14</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>3.382513947628482</v>
+        <v>14973237.93488492</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1.72007810827532e-14</v>
+        <v>7.020854773733927e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>14973237.93488492</v>
+        <v>3.856378210257704</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>7.020854773733927e-06</v>
+        <v>0.0001861502239027347</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>3.856378210257704</v>
+        <v>11.71974599121695</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001861502239027347</v>
+        <v>1.077072646882918</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>11.71974599121695</v>
+        <v>0.02556818859485119</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.077072646882918</v>
+        <v>2.418512703507026</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.02556818859485119</v>
+        <v>0.9330186929978929</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.418512703507026</v>
+        <v>1.84736801506254</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9330186929978929</v>
+        <v>3</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.84736801506254</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.1461394151060538</v>
       </c>
     </row>
@@ -6189,72 +6027,66 @@
         <v>1.229281369320773e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.9134444939791551</v>
+        <v>4.489831421652861e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-0.2727310406839294</v>
+        <v>4.137833828344049e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>4.489831421652861e-07</v>
+        <v>0.05478982276946422</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>4.137833828344049e-06</v>
+        <v>0.1580063250303782</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.05478982276946422</v>
+        <v>0.02796824435308917</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1580063250303782</v>
+        <v>1.51973512394182</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.02796824435308917</v>
+        <v>1.483731356631774</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.427298414646858</v>
+        <v>3.178404959476499</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.483731356631774</v>
+        <v>1.966198878839068e-14</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.178404959476499</v>
+        <v>13282908.31788493</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1.966198878839068e-14</v>
+        <v>7.829037765734822e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>13282908.31788493</v>
+        <v>3.469075838656224</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>7.829037765734822e-06</v>
+        <v>0.0002027009792225885</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>3.469075838656224</v>
+        <v>10.7899168389084</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0002027009792225885</v>
+        <v>1.227658637911004</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>10.7899168389084</v>
+        <v>0.02359891530601754</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.227658637911004</v>
+        <v>2.550592897339262</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.02359891530601754</v>
+        <v>0.9337927576909454</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.550592897339262</v>
+        <v>1.878582436149017</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9337927576909454</v>
+        <v>3</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.878582436149017</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.1313416135287031</v>
       </c>
     </row>
@@ -6269,72 +6101,66 @@
         <v>1.27785705378788e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.8712303487350285</v>
+        <v>4.489831421652861e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-0.3961674730168872</v>
+        <v>4.14454120467402e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>4.489831421652861e-07</v>
+        <v>0.05214311910513962</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>4.14454120467402e-06</v>
+        <v>0.1523504721455526</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.05214311910513962</v>
+        <v>0.02592953727769493</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1523504721455526</v>
+        <v>1.492390772774731</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.02592953727769493</v>
+        <v>1.471920008625507</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.398877448668204</v>
+        <v>3.234191482579338</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.471920008625507</v>
+        <v>1.898954003842052e-14</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.234191482579338</v>
+        <v>14108207.14786977</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1.898954003842052e-14</v>
+        <v>7.355178580256848e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>14108207.14786977</v>
+        <v>3.779706703080769</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>7.355178580256848e-06</v>
+        <v>0.0002132732098899873</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>3.779706703080769</v>
+        <v>9.911292754129967</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0002132732098899873</v>
+        <v>1.411386035685793</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>9.911292754129967</v>
+        <v>0.02095062164931168</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.411386035685793</v>
+        <v>2.615126479980165</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.02095062164931168</v>
+        <v>0.9320205183154581</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.615126479980165</v>
+        <v>1.889953594706503</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9320205183154581</v>
+        <v>3</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.889953594706503</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.1281120630093031</v>
       </c>
     </row>
@@ -6349,72 +6175,66 @@
         <v>1.317699679382789e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.815616305431051</v>
+        <v>4.489831421652861e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-0.546151916837426</v>
+        <v>4.151170095681737e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>4.489831421652861e-07</v>
+        <v>0.05016029328618334</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>4.151170095681737e-06</v>
+        <v>0.1480205292952036</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.05016029328618334</v>
+        <v>0.02442616132748695</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1480205292952036</v>
+        <v>1.489305507604654</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.02442616132748695</v>
+        <v>1.44059021208034</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.394004474586401</v>
+        <v>3.354200458348502</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.44059021208034</v>
+        <v>1.765500624969332e-14</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3.354200458348502</v>
+        <v>15368572.61168874</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1.765500624969332e-14</v>
+        <v>6.779653433677833e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>15368572.61168874</v>
+        <v>4.169989316985792</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>6.779653433677833e-06</v>
+        <v>0.0001789116487135899</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>4.169989316985792</v>
+        <v>9.671849500555719</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001789116487135899</v>
+        <v>1.317509947884222</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>9.671849500555719</v>
+        <v>0.0167362316321153</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.317509947884222</v>
+        <v>2.793788587088819</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.0167362316321153</v>
+        <v>0.935242455192925</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.793788587088819</v>
+        <v>1.873637817872737</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.935242455192925</v>
+        <v>6</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.873637817872737</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.1449801998820122</v>
       </c>
     </row>
@@ -6429,72 +6249,66 @@
         <v>1.350384183843236e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.7560109364237627</v>
+        <v>4.489831421652861e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-0.6930731551061773</v>
+        <v>4.15782417398292e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>4.489831421652861e-07</v>
+        <v>0.04988356741715413</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>4.15782417398292e-06</v>
+        <v>0.1439497800734888</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.04988356741715413</v>
+        <v>0.02320980090489452</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1439497800734888</v>
+        <v>1.479891227274039</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.02320980090489452</v>
+        <v>1.421781436920474</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.383240247956136</v>
+        <v>3.370466696722413</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.421781436920474</v>
+        <v>1.634276821576698e-14</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.370466696722413</v>
+        <v>16583467.19520819</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1.634276821576698e-14</v>
+        <v>6.27111248867461e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>16583467.19520819</v>
+        <v>4.494447308915566</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>6.27111248867461e-06</v>
+        <v>0.000157745787302411</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>4.494447308915566</v>
+        <v>10.18186566794172</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.000157745787302411</v>
+        <v>1.166433654196811</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>10.18186566794172</v>
+        <v>0.01635356705072602</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.166433654196811</v>
+        <v>2.755676924586116</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.01635356705072602</v>
+        <v>0.9336318695732925</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.755676924586116</v>
+        <v>1.896868861056271</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9336318695732925</v>
+        <v>6</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.896868861056271</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.1643821478041972</v>
       </c>
     </row>
@@ -6509,72 +6323,66 @@
         <v>1.379557622027361e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.7013988869039539</v>
+        <v>4.489831421652861e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-0.8196535677632379</v>
+        <v>4.164736436749388e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>4.489831421652861e-07</v>
+        <v>0.05166964926094365</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>4.164736436749388e-06</v>
+        <v>0.1402792333779866</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.05166964926094365</v>
+        <v>0.02234670957302395</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1402792333779866</v>
+        <v>1.511955712192725</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.02234670957302395</v>
+        <v>1.641848138909427</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.415273759511358</v>
+        <v>3.230491597449968</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.641848138909427</v>
+        <v>1.731289571816923e-14</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.230491597449968</v>
+        <v>15792414.72621112</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>1.731289571816923e-14</v>
+        <v>6.690462126832357e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>15792414.72621112</v>
+        <v>4.317842474695505</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>6.690462126832357e-06</v>
+        <v>0.0001590835293434964</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>4.317842474695505</v>
+        <v>9.723673217482201</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001590835293434964</v>
+        <v>1.20594354471422</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>9.723673217482201</v>
+        <v>0.01504131919808302</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.20594354471422</v>
+        <v>2.795071374442047</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.01504131919808302</v>
+        <v>0.9369409062452867</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.795071374442047</v>
+        <v>1.867669693059744</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9369409062452867</v>
+        <v>5</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.867669693059744</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.1578341699681765</v>
       </c>
     </row>
@@ -6589,72 +6397,66 @@
         <v>1.408387114899918e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.6577655292600963</v>
+        <v>4.639900168239974e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.9187927729035792</v>
+        <v>4.17209741290333e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>4.639900168239974e-07</v>
+        <v>0.05371045095997797</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>4.17209741290333e-06</v>
+        <v>0.1369150554385082</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.05371045095997797</v>
+        <v>0.02163024557340734</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1369150554385082</v>
+        <v>1.499323075377394</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.02163024557340734</v>
+        <v>1.480143960697206</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.401434496436254</v>
+        <v>3.24733529623034</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.480143960697206</v>
+        <v>1.713375997429012e-14</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.24733529623034</v>
+        <v>16127615.89181354</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>1.713375997429012e-14</v>
+        <v>6.503105083822292e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>16127615.89181354</v>
+        <v>4.456490872573538</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>6.503105083822292e-06</v>
+        <v>0.0001716396464985635</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>4.456490872573538</v>
+        <v>9.388110583438747</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001716396464985635</v>
+        <v>1.304916196742513</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>9.388110583438747</v>
+        <v>0.01512773835648286</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.304916196742513</v>
+        <v>2.779824238743836</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.01512773835648286</v>
+        <v>0.9376336248658343</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.779824238743836</v>
+        <v>1.85999766557458</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9376336248658343</v>
+        <v>6</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.85999766557458</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.1474176065718872</v>
       </c>
     </row>
@@ -7031,7 +6833,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.260556583632922</v>
+        <v>1.231861211248762</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.313360745629902</v>
@@ -7120,7 +6922,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.256242674515335</v>
+        <v>1.227956612742789</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.284849052805559</v>
@@ -7209,7 +7011,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.261608330336131</v>
+        <v>1.234135706047222</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.091902939484788</v>
@@ -7298,7 +7100,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.269315876845242</v>
+        <v>1.248206127514149</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.11689240511693</v>
@@ -7387,7 +7189,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.288967910225278</v>
+        <v>1.264305987030115</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.128904963333109</v>
@@ -7476,7 +7278,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.285250407670584</v>
+        <v>1.264571761511337</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.164175160555094</v>
@@ -7565,7 +7367,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.279039450622583</v>
+        <v>1.259976536827102</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.19203187847721</v>
@@ -7654,7 +7456,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.288859448470925</v>
+        <v>1.267812003719731</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.306214001846889</v>
@@ -7743,7 +7545,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.271201304863559</v>
+        <v>1.253282920325632</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.178748303936491</v>
@@ -7832,7 +7634,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.250433046414034</v>
+        <v>1.229418817444069</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.23615544596218</v>
@@ -7921,7 +7723,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.253280248937754</v>
+        <v>1.232268778669905</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.169366256567159</v>
@@ -8010,7 +7812,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.243325503787266</v>
+        <v>1.222977269563125</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.246874682911761</v>
@@ -8099,7 +7901,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.242968964427135</v>
+        <v>1.221972517721056</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.133804615851339</v>
@@ -8188,7 +7990,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.250552326097491</v>
+        <v>1.231282713524996</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.258072009365701</v>
@@ -8277,7 +8079,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.251297221815075</v>
+        <v>1.233501086355407</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.217257440068754</v>
@@ -8366,7 +8168,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.258334348867947</v>
+        <v>1.242527443736947</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.181036961939376</v>
@@ -8455,7 +8257,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.270751144608779</v>
+        <v>1.256777980928295</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.078459328928108</v>
@@ -8544,7 +8346,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.260743906071208</v>
+        <v>1.243497153001724</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.155345464263098</v>
@@ -8633,7 +8435,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.24185097802618</v>
+        <v>1.219279994639325</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.214299766487926</v>
@@ -8722,7 +8524,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.24293912593589</v>
+        <v>1.224043634326948</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.145666700623514</v>
@@ -8811,7 +8613,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.251716718151011</v>
+        <v>1.23253180601083</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.099665942405759</v>
@@ -8900,7 +8702,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.2575213442687</v>
+        <v>1.239406315209853</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.228201055827294</v>
@@ -8989,7 +8791,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.265345421564596</v>
+        <v>1.241682420398289</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.055583495486352</v>
@@ -9078,7 +8880,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.276653793515491</v>
+        <v>1.260289368415999</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.492939017379781</v>
@@ -9167,7 +8969,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.287077206187651</v>
+        <v>1.275578454391129</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.349163710054467</v>
@@ -9256,7 +9058,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.292606650755468</v>
+        <v>1.274457917367128</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.131681432431292</v>
@@ -9345,7 +9147,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.284325738162305</v>
+        <v>1.272187916782426</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.381669824022273</v>
@@ -9434,7 +9236,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.291143859534839</v>
+        <v>1.278806338567775</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.360882610058871</v>
@@ -9523,7 +9325,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.297514566557738</v>
+        <v>1.286396090967602</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.321403254094375</v>
@@ -9612,7 +9414,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.307083883986953</v>
+        <v>1.296288828999419</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.276706304836435</v>
@@ -9701,7 +9503,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.294765735695396</v>
+        <v>1.284436069414692</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.374059694186976</v>
@@ -9790,7 +9592,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.300765915225521</v>
+        <v>1.29057782786566</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.336827349371234</v>
@@ -9879,7 +9681,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.328252603956529</v>
+        <v>1.315480287331398</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.204858778310739</v>
@@ -9968,7 +9770,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.347246949765019</v>
+        <v>1.335203328281723</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.198681399650177</v>
@@ -10057,7 +9859,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.355064718661018</v>
+        <v>1.351920580022638</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.317485535280985</v>
@@ -10146,7 +9948,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.359315305574061</v>
+        <v>1.353959145772201</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.405391430370358</v>
@@ -10235,7 +10037,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.381063561863523</v>
+        <v>1.36939318835438</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.184788417723364</v>
@@ -10324,7 +10126,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.40208925819149</v>
+        <v>1.400025699365907</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.236329820921607</v>
@@ -10413,7 +10215,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.392558115544558</v>
+        <v>1.386812705442734</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.291587090642691</v>
@@ -10502,7 +10304,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.381052477685351</v>
+        <v>1.37267936917233</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.273289878552934</v>
@@ -10591,7 +10393,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.406639713245257</v>
+        <v>1.400043346937067</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.246520330083102</v>
@@ -10680,7 +10482,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.405776165450302</v>
+        <v>1.399051468816331</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.331631280781218</v>
@@ -10769,7 +10571,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.393638744609989</v>
+        <v>1.387800418853807</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.278753405170577</v>
@@ -10858,7 +10660,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.366212208860446</v>
+        <v>1.358606610160454</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.217289117701713</v>
@@ -10947,7 +10749,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.342648329673549</v>
+        <v>1.331848728187259</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.253964167792574</v>
@@ -11036,7 +10838,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.345444823559172</v>
+        <v>1.329138516668755</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.278076362665999</v>
@@ -11125,7 +10927,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.312512779493097</v>
+        <v>1.302070389280671</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.233445153215355</v>
@@ -11214,7 +11016,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.296203828998387</v>
+        <v>1.28518671274046</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.236414138445311</v>
@@ -11303,7 +11105,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.281786719930831</v>
+        <v>1.263489347161973</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.140796361899411</v>
@@ -11392,7 +11194,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.255078650347261</v>
+        <v>1.23815272370176</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.320479868743083</v>
@@ -11481,7 +11283,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.251204324034729</v>
+        <v>1.237846189426378</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.278886664752616</v>
@@ -11570,7 +11372,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.260749200983404</v>
+        <v>1.24479907952622</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.222895086322421</v>
@@ -11659,7 +11461,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.24732329862669</v>
+        <v>1.236453529594489</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.307512252172522</v>
@@ -11748,7 +11550,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.235447432576319</v>
+        <v>1.225307471639524</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.306325254742507</v>
@@ -11837,7 +11639,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.240150573011065</v>
+        <v>1.230728005755166</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.296904107749074</v>
@@ -11926,7 +11728,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.239026816375706</v>
+        <v>1.225204600388688</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.33061004564326</v>
@@ -12015,7 +11817,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.242936603465129</v>
+        <v>1.234936112257154</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.290665236966768</v>
@@ -12104,7 +11906,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.254459295012549</v>
+        <v>1.245846386730377</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.159340354954273</v>
@@ -12193,7 +11995,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.267656955794408</v>
+        <v>1.261520422394304</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.186456564464407</v>
@@ -12282,7 +12084,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.294351977624888</v>
+        <v>1.292662002731995</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.173765777351893</v>
@@ -12371,7 +12173,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.31303385772772</v>
+        <v>1.313320552903574</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.222218052079629</v>
@@ -12460,7 +12262,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.321504175760131</v>
+        <v>1.314976556554363</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.425752612387781</v>
@@ -12549,7 +12351,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.338818452975233</v>
+        <v>1.338009741881227</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.266306126296567</v>
@@ -12638,7 +12440,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.380576927454562</v>
+        <v>1.385364055400567</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.253192905920141</v>
@@ -12727,7 +12529,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.426314182214566</v>
+        <v>1.434752723545416</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.278413990324371</v>
@@ -12816,7 +12618,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.447963471984058</v>
+        <v>1.454550539810113</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.488176352856188</v>
@@ -12905,7 +12707,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.458135852041578</v>
+        <v>1.460724428223947</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.524820534730317</v>
@@ -12994,7 +12796,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.447660476043759</v>
+        <v>1.453181056690188</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.555914709945581</v>
@@ -13083,7 +12885,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.472517882939683</v>
+        <v>1.478590582896666</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.330596955916822</v>
@@ -13172,7 +12974,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.497735360235072</v>
+        <v>1.503143464057412</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.302042340207595</v>
@@ -13261,7 +13063,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.55636680874393</v>
+        <v>1.560184642513696</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.280505904036441</v>
@@ -13350,7 +13152,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.540120951853214</v>
+        <v>1.548375162109945</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.431012457818624</v>
@@ -13439,7 +13241,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.507155144810878</v>
+        <v>1.516513096193985</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.459249316256478</v>
@@ -13528,7 +13330,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.520315469703769</v>
+        <v>1.52760225148611</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.398989506013978</v>
@@ -13617,7 +13419,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.5166056530398</v>
+        <v>1.52280950869283</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.446337247391023</v>
@@ -13706,7 +13508,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.516658585651202</v>
+        <v>1.519337078494819</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.309231461037277</v>
@@ -13992,7 +13794,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.64821157639527</v>
+        <v>1.64643662337691</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.38038476438532</v>
@@ -14081,7 +13883,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.642503371264142</v>
+        <v>1.637165108897052</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.448038073571132</v>
@@ -14170,7 +13972,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.654265556517713</v>
+        <v>1.654727398098075</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.882601274895902</v>
@@ -14259,7 +14061,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.656180113868024</v>
+        <v>1.665210098065072</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.732565919253178</v>
@@ -14348,7 +14150,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.659456663617483</v>
+        <v>1.66817695159587</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.291076107970738</v>
@@ -14437,7 +14239,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.648904131455683</v>
+        <v>1.664726823693423</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.363827862932146</v>
@@ -14526,7 +14328,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.640205627865128</v>
+        <v>1.657137460745584</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.194121486096797</v>
@@ -14615,7 +14417,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.651113224994383</v>
+        <v>1.66564993533785</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.65397443731002</v>
@@ -14704,7 +14506,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.63385296360986</v>
+        <v>1.647986315357419</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.137395196215339</v>
@@ -14793,7 +14595,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.618994891636214</v>
+        <v>1.636609618111988</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.419894558963971</v>
@@ -14882,7 +14684,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.615643085203721</v>
+        <v>1.630151471314764</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.301313101777549</v>
@@ -14971,7 +14773,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.608619693574623</v>
+        <v>1.623771681527414</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.367060596100438</v>
@@ -15060,7 +14862,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.608944863308039</v>
+        <v>1.624699657169096</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.952283047690416</v>
@@ -15149,7 +14951,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.617048243327491</v>
+        <v>1.634988412997051</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.462559370422631</v>
@@ -15238,7 +15040,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.622733771253263</v>
+        <v>1.643513438033662</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.138505578775589</v>
@@ -15327,7 +15129,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.631133668756139</v>
+        <v>1.652180993827897</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.358232516050906</v>
@@ -15416,7 +15218,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.646024814526091</v>
+        <v>1.667451676486424</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.322599152788074</v>
@@ -15505,7 +15307,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.63215196244594</v>
+        <v>1.655516330369472</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.243801890395181</v>
@@ -15594,7 +15396,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.609372657089153</v>
+        <v>1.633419413950922</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.203601277509135</v>
@@ -15683,7 +15485,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.609921900353416</v>
+        <v>1.63306979401208</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.970278434235901</v>
@@ -15772,7 +15574,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.622263178709126</v>
+        <v>1.645682067282626</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.120406582910994</v>
@@ -15861,7 +15663,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.624868813416206</v>
+        <v>1.645498874136373</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.367721637425585</v>
@@ -15950,7 +15752,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.637766839765448</v>
+        <v>1.654837130885205</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.632538435426372</v>
@@ -16039,7 +15841,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.64904226559767</v>
+        <v>1.668228543194638</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.848717524783266</v>
@@ -16128,7 +15930,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.631263205071752</v>
+        <v>1.664000068941708</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.631477414346338</v>
@@ -16217,7 +16019,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.641667441460362</v>
+        <v>1.675403361410357</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.424792423132646</v>
@@ -16306,7 +16108,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.649429581284059</v>
+        <v>1.687307570281214</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.764561149572555</v>
@@ -16395,7 +16197,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.6642115477383</v>
+        <v>1.699745606165703</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.783920569401415</v>
@@ -16484,7 +16286,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.672861691621087</v>
+        <v>1.709740991619122</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.731328756650075</v>
@@ -16573,7 +16375,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.682430493980507</v>
+        <v>1.713976434128894</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.737689932978356</v>
@@ -16662,7 +16464,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.675545702948128</v>
+        <v>1.710494529623066</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.728328294946657</v>
@@ -16751,7 +16553,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.676583640481729</v>
+        <v>1.711835354135258</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.727919603071533</v>
@@ -16840,7 +16642,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.678709513595845</v>
+        <v>1.7104672818513</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.773301788471293</v>
@@ -16929,7 +16731,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.697908337063189</v>
+        <v>1.728819883262419</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.847251528031862</v>
@@ -17018,7 +16820,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.711526634837846</v>
+        <v>1.742186437876459</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.861496960138879</v>
@@ -17107,7 +16909,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.710286553914731</v>
+        <v>1.742690843316489</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.844671489972314</v>
@@ -17196,7 +16998,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.72978729106346</v>
+        <v>1.761541795635884</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.96548249223738</v>
@@ -17285,7 +17087,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.732900067808291</v>
+        <v>1.767524334388676</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.865838933857262</v>
@@ -17374,7 +17176,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.7327302620952</v>
+        <v>1.765443738650543</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.965715956220359</v>
@@ -17463,7 +17265,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.749455613738673</v>
+        <v>1.768757834054221</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.01847430802466</v>
@@ -17552,7 +17354,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.753857261258555</v>
+        <v>1.769237542068619</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.344342776135043</v>
@@ -17641,7 +17443,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.757734445407221</v>
+        <v>1.772604974223654</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.32629436847554</v>
@@ -17730,7 +17532,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.751708242000362</v>
+        <v>1.76877104617729</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.243794111298142</v>
@@ -17819,7 +17621,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.733167761620006</v>
+        <v>1.752919237249795</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.926029139552973</v>
@@ -17908,7 +17710,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.712617672021178</v>
+        <v>1.736602131466309</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.046536209934214</v>
@@ -17997,7 +17799,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.699157350487459</v>
+        <v>1.723608503567291</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.511771518592141</v>
@@ -18086,7 +17888,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.689334060802401</v>
+        <v>1.716343272099787</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.077275680577546</v>
@@ -18175,7 +17977,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.698423177158065</v>
+        <v>1.727616644699483</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.133830427599037</v>
@@ -18264,7 +18066,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.684579810418563</v>
+        <v>1.714059546552559</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.794240707038272</v>
@@ -18353,7 +18155,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.674537746917531</v>
+        <v>1.709461973599648</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.118682282684759</v>
@@ -18442,7 +18244,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.674313964244145</v>
+        <v>1.708734162222109</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.067822060866973</v>
@@ -18531,7 +18333,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.67702454746741</v>
+        <v>1.707108502953615</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.794152263265412</v>
@@ -18620,7 +18422,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.677544251414637</v>
+        <v>1.712581174062546</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.04715404567394</v>
@@ -18709,7 +18511,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.682176514687723</v>
+        <v>1.718315988956373</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.945458805997647</v>
@@ -18798,7 +18600,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.684651909168862</v>
+        <v>1.724402880401736</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.595781331570049</v>
@@ -18887,7 +18689,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.68909196916054</v>
+        <v>1.729752662924764</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.734760242605152</v>
@@ -18976,7 +18778,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.69869845705776</v>
+        <v>1.738172693342671</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.57358107278435</v>
@@ -19065,7 +18867,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.696943037135722</v>
+        <v>1.734302253898901</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.213905611725128</v>
@@ -19154,7 +18956,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.719778049610334</v>
+        <v>1.756614809955588</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.49159395007175</v>
@@ -19243,7 +19045,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.741070839504177</v>
+        <v>1.777707691725975</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.168458434546835</v>
@@ -19332,7 +19134,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.755571720226726</v>
+        <v>1.786749980551401</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.410747329533562</v>
@@ -19421,7 +19223,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.754867273688729</v>
+        <v>1.784681370794316</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.63206455965024</v>
@@ -19510,7 +19312,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.764481184285854</v>
+        <v>1.795087859610441</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.453219162203581</v>
@@ -19599,7 +19401,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.789888068288898</v>
+        <v>1.81740992955664</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.755739528438338</v>
@@ -19688,7 +19490,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.807604914461328</v>
+        <v>1.832820921342087</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>4.118023879569892</v>
@@ -19777,7 +19579,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.816459797152267</v>
+        <v>1.842073132254106</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.691385364799061</v>
@@ -19866,7 +19668,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.813216383168401</v>
+        <v>1.836211242381214</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>4.187456387950484</v>
@@ -19955,7 +19757,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.783765121330847</v>
+        <v>1.814084751919905</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.271313970115101</v>
@@ -20044,7 +19846,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.801085525141124</v>
+        <v>1.832459592252041</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.54171071460399</v>
@@ -20133,7 +19935,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.821514819389017</v>
+        <v>1.851232836564081</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.562394488727877</v>
@@ -20222,7 +20024,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.838647313859865</v>
+        <v>1.863522893759867</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.756660416556763</v>
@@ -20311,7 +20113,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.834999988207366</v>
+        <v>1.862623056452427</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.543098059980667</v>
@@ -20400,7 +20202,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.82435890159891</v>
+        <v>1.854341184641377</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.837736068036713</v>
@@ -20489,7 +20291,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.825013867060667</v>
+        <v>1.854185932673845</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.995067720825846</v>
@@ -20578,7 +20380,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.829785781841191</v>
+        <v>1.854150717545508</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>4.017348866616591</v>
@@ -20667,7 +20469,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.836168641121886</v>
+        <v>1.860224706844074</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.732205882042644</v>
@@ -20953,7 +20755,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.561374869282933</v>
+        <v>1.539814196129551</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.525196190727664</v>
@@ -21042,7 +20844,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.569477509498568</v>
+        <v>1.54407967786516</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.456350427899543</v>
@@ -21131,7 +20933,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.570447606425136</v>
+        <v>1.541715378417219</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.368027145387138</v>
@@ -21220,7 +21022,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.571687190033679</v>
+        <v>1.547982353390605</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.550390964933588</v>
@@ -21309,7 +21111,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.573433204629512</v>
+        <v>1.549085017950688</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.420255842524719</v>
@@ -21398,7 +21200,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.574314003980699</v>
+        <v>1.557185502510784</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.464157137666902</v>
@@ -21487,7 +21289,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.573428585432806</v>
+        <v>1.553988678568312</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.481616689048271</v>
@@ -21576,7 +21378,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.56959817222537</v>
+        <v>1.547817647660944</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.563593715652523</v>
@@ -21665,7 +21467,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.56829275993426</v>
+        <v>1.544193895416148</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.483547886702421</v>
@@ -21754,7 +21556,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.562735010962332</v>
+        <v>1.539215766883462</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.518005853411456</v>
@@ -21843,7 +21645,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.558131663804875</v>
+        <v>1.538264898513075</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.447399631507987</v>
@@ -21932,7 +21734,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.55608430701285</v>
+        <v>1.539196778312012</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.525784976970766</v>
@@ -22021,7 +21823,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.556367788111739</v>
+        <v>1.534062417751157</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.292714830554162</v>
@@ -22110,7 +21912,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.597072324274168</v>
+        <v>1.566008345606284</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.249114549001697</v>
@@ -22199,7 +22001,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.603168799480699</v>
+        <v>1.578438117933405</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.406926198779658</v>
@@ -22288,7 +22090,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.609623751568683</v>
+        <v>1.5851863102008</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.228944430108257</v>
@@ -22377,7 +22179,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.604377562914354</v>
+        <v>1.582852137935914</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.15499454957804</v>
@@ -22466,7 +22268,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.599565603137471</v>
+        <v>1.578592666939134</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.358148213915534</v>
@@ -22555,7 +22357,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.593152104268594</v>
+        <v>1.566059043756918</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.364877321629671</v>
@@ -22644,7 +22446,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.595135760424936</v>
+        <v>1.562745316880596</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.164542198169011</v>
@@ -22733,7 +22535,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.582941731915008</v>
+        <v>1.545902644510199</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.000226099726325</v>
@@ -22822,7 +22624,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.586925400162339</v>
+        <v>1.550635315721304</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.120143531400873</v>
@@ -22911,7 +22713,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.602886441951527</v>
+        <v>1.566952661942463</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.033759566742422</v>
@@ -23000,7 +22802,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.616528421480539</v>
+        <v>1.576035940059477</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.160860777383159</v>
@@ -23089,7 +22891,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.631669945701394</v>
+        <v>1.589922770491754</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.708438823869814</v>
@@ -23178,7 +22980,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.637791576861237</v>
+        <v>1.596971145412461</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.442364602326907</v>
@@ -23267,7 +23069,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.636589225823742</v>
+        <v>1.596412049320238</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.555855861537592</v>
@@ -23356,7 +23158,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.633730443599097</v>
+        <v>1.598499716914783</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.635721380782626</v>
@@ -23445,7 +23247,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.638678337039724</v>
+        <v>1.603756637679689</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.483368529626097</v>
@@ -23534,7 +23336,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.639017282933845</v>
+        <v>1.605863949305403</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.321516131794662</v>
@@ -23623,7 +23425,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.634735293641579</v>
+        <v>1.603345039836221</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.190093393616144</v>
@@ -23712,7 +23514,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.634593303713738</v>
+        <v>1.605456900491449</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.506672271569828</v>
@@ -23801,7 +23603,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.623904181588061</v>
+        <v>1.594884817979293</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.537020747291029</v>
@@ -23890,7 +23692,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.621937681759346</v>
+        <v>1.59517912429818</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.389162411906773</v>
@@ -23979,7 +23781,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.626741719322611</v>
+        <v>1.60340220176749</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.556174728711409</v>
@@ -24068,7 +23870,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.637683482021781</v>
+        <v>1.612005176713011</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.279721109921297</v>
@@ -24157,7 +23959,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.629189742744552</v>
+        <v>1.599719723308944</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.127295179739303</v>
@@ -24246,7 +24048,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.627271487341462</v>
+        <v>1.598769748166716</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.598886641976569</v>
@@ -24335,7 +24137,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.624831345738474</v>
+        <v>1.599175253245631</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.318322283688119</v>
@@ -24424,7 +24226,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.617943328075441</v>
+        <v>1.591785531827708</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.505945589220346</v>
@@ -24513,7 +24315,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.614544674421391</v>
+        <v>1.584311873756972</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.558159029637771</v>
@@ -24602,7 +24404,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.620735741415718</v>
+        <v>1.591566196731049</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.190696037764661</v>
@@ -24691,7 +24493,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.614127148864695</v>
+        <v>1.584200500254402</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.467092935028217</v>
@@ -24780,7 +24582,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.602946948465693</v>
+        <v>1.572363104352277</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.504829528171135</v>
@@ -24869,7 +24671,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.602075964071729</v>
+        <v>1.569003682691635</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.323930613613948</v>
@@ -24958,7 +24760,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.604324648342999</v>
+        <v>1.570259258022635</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.546524393191155</v>
@@ -25047,7 +24849,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.592549091395205</v>
+        <v>1.558497487570189</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.264499653146183</v>
@@ -25136,7 +24938,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.600057814247937</v>
+        <v>1.570904054502595</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.576440592678674</v>
@@ -25225,7 +25027,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.601003781221886</v>
+        <v>1.575269268598091</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.682603934126909</v>
@@ -25314,7 +25116,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.588031170516554</v>
+        <v>1.562230368700063</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.856110843130006</v>
@@ -25403,7 +25205,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.581096914106841</v>
+        <v>1.561335095363671</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.849077786566517</v>
@@ -25492,7 +25294,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.589804555146126</v>
+        <v>1.569059002241521</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.769942880338443</v>
@@ -25581,7 +25383,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.582675583236055</v>
+        <v>1.564692121465007</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.31878676551323</v>
@@ -25670,7 +25472,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.576009125609432</v>
+        <v>1.554356701268332</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.40329130209023</v>
@@ -25759,7 +25561,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.582397755308423</v>
+        <v>1.561968532396998</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.587753902917749</v>
@@ -25848,7 +25650,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.580117431140244</v>
+        <v>1.562392343108093</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.413423365593388</v>
@@ -25937,7 +25739,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.582996836161572</v>
+        <v>1.56388832312945</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.344608463209891</v>
@@ -26026,7 +25828,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.59464671393594</v>
+        <v>1.568301309387913</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.247372027706676</v>
@@ -26115,7 +25917,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.605394670417158</v>
+        <v>1.578069881857328</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.729822545285902</v>
@@ -26204,7 +26006,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.614492327716718</v>
+        <v>1.586765339376943</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.487207406330374</v>
@@ -26293,7 +26095,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.618954465634494</v>
+        <v>1.592475632485077</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.307856325692089</v>
@@ -26382,7 +26184,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.621478142870545</v>
+        <v>1.588981756416735</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.581236488122323</v>
@@ -26471,7 +26273,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.62330529135913</v>
+        <v>1.590119641733222</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.580919570681298</v>
@@ -26560,7 +26362,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.637429931132229</v>
+        <v>1.600820937177526</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.834000679875359</v>
@@ -26649,7 +26451,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.648921735730517</v>
+        <v>1.615685201206594</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.627314190603306</v>
@@ -26738,7 +26540,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.656108846089678</v>
+        <v>1.618496449412181</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.453702394002339</v>
@@ -26827,7 +26629,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.658249582243041</v>
+        <v>1.622678271624593</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.204412865191511</v>
@@ -26916,7 +26718,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.661535160991623</v>
+        <v>1.630051616585685</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.451617866144483</v>
@@ -27005,7 +26807,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.668649098668565</v>
+        <v>1.645624379143359</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.261085088631483</v>
@@ -27094,7 +26896,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.673720845838883</v>
+        <v>1.647672464726071</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.617228287099215</v>
@@ -27183,7 +26985,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.692419351785762</v>
+        <v>1.665951778302952</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.899923590253279</v>
@@ -27272,7 +27074,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.690425309788233</v>
+        <v>1.66759274303104</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>4.025514739079213</v>
@@ -27361,7 +27163,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.684508011776958</v>
+        <v>1.66306484762786</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.964928964835546</v>
@@ -27450,7 +27252,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.687147024618408</v>
+        <v>1.662531533012683</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.572924209133568</v>
@@ -27539,7 +27341,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.681888447077627</v>
+        <v>1.658602109107931</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.550175129887582</v>
@@ -27628,7 +27430,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.687967162701751</v>
+        <v>1.66672363444583</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.567755349439898</v>
@@ -27914,7 +27716,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.654651024613513</v>
+        <v>1.619164666704203</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.633985795210581</v>
@@ -28003,7 +27805,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.670781670815327</v>
+        <v>1.632760273509471</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.699452747532098</v>
@@ -28092,7 +27894,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.656756375684574</v>
+        <v>1.62133425503952</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.461954808427924</v>
@@ -28181,7 +27983,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.649132336960263</v>
+        <v>1.613965315321036</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.114147770922136</v>
@@ -28270,7 +28072,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.649793989219888</v>
+        <v>1.615515369713954</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.56611619876069</v>
@@ -28359,7 +28161,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.658745550558124</v>
+        <v>1.626381362889072</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.413224829389184</v>
@@ -28448,7 +28250,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.666400091198185</v>
+        <v>1.635318243805571</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.211162351650612</v>
@@ -28537,7 +28339,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.658819744482343</v>
+        <v>1.625336131783202</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.136640928019808</v>
@@ -28626,7 +28428,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.661851208151095</v>
+        <v>1.626617786158347</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.424886632611402</v>
@@ -28715,7 +28517,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.67006152850601</v>
+        <v>1.636465981848646</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.377160488114376</v>
@@ -28804,7 +28606,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.665256569501573</v>
+        <v>1.634198970384011</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.579789239766456</v>
@@ -28893,7 +28695,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.657947294329652</v>
+        <v>1.62358019584339</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.860061980757312</v>
@@ -28982,7 +28784,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.648570973467601</v>
+        <v>1.610563605026468</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.59260256316353</v>
@@ -29071,7 +28873,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.656474752196299</v>
+        <v>1.61607087552109</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.420516936541785</v>
@@ -29160,7 +28962,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.650605394002423</v>
+        <v>1.612564140252246</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.488350413613218</v>
@@ -29249,7 +29051,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.658233433994037</v>
+        <v>1.621291995400979</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.911360402538653</v>
@@ -29338,7 +29140,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.659886187503428</v>
+        <v>1.631592645910372</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.550904980017294</v>
@@ -29427,7 +29229,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.65720453855269</v>
+        <v>1.627419608813427</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.887464568165888</v>
@@ -29516,7 +29318,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.659769781724982</v>
+        <v>1.629456279220606</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.669860309455483</v>
@@ -29605,7 +29407,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.663014725600892</v>
+        <v>1.628758052719738</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.767840292826493</v>
@@ -29694,7 +29496,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.655446268330258</v>
+        <v>1.613726710697588</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.88516100613774</v>
@@ -29783,7 +29585,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.650246898191608</v>
+        <v>1.614410210761902</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.51814047828702</v>
@@ -29872,7 +29674,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.662981966000987</v>
+        <v>1.631263147564569</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.747554982991581</v>
@@ -29961,7 +29763,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.657466365921118</v>
+        <v>1.62571205916873</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.340922444024978</v>
@@ -30050,7 +29852,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.666210698368822</v>
+        <v>1.636411955550615</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.417608620344594</v>
@@ -30139,7 +29941,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.679195869311669</v>
+        <v>1.65176539392383</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.825760100880176</v>
@@ -30228,7 +30030,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.684664613793434</v>
+        <v>1.662913048861024</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.569573133030696</v>
@@ -30317,7 +30119,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.702280497978599</v>
+        <v>1.681504798908809</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.867979945686738</v>
@@ -30406,7 +30208,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.697488560051775</v>
+        <v>1.676586599650489</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.720843877174447</v>
@@ -30495,7 +30297,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.697370448757298</v>
+        <v>1.674660735790728</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.36810948068514</v>
@@ -30584,7 +30386,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.690661903381105</v>
+        <v>1.669092572461871</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.514716511033416</v>
@@ -30673,7 +30475,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.684120738262123</v>
+        <v>1.657665856341344</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.537633574546002</v>
@@ -30762,7 +30564,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.683437694967661</v>
+        <v>1.658316775640245</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.960237200901255</v>
@@ -30851,7 +30653,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.684853239101669</v>
+        <v>1.660165170207423</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.728417660960413</v>
@@ -30940,7 +30742,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.683625571395235</v>
+        <v>1.658642919972036</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.740019413033381</v>
@@ -31029,7 +30831,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.688905849702677</v>
+        <v>1.665299982293154</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.661058570478709</v>
@@ -31118,7 +30920,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.687455875983634</v>
+        <v>1.661886055240613</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.381807487292706</v>
@@ -31207,7 +31009,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.687918749763468</v>
+        <v>1.659891109833465</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.726546905532288</v>
@@ -31296,7 +31098,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.695906071732671</v>
+        <v>1.672166208359558</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.729436827339136</v>
@@ -31385,7 +31187,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.683228188872203</v>
+        <v>1.657666313866835</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.886531171282883</v>
@@ -31474,7 +31276,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.674884406829692</v>
+        <v>1.645785553952578</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.183848700248929</v>
@@ -31563,7 +31365,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.673763518773672</v>
+        <v>1.642886130676497</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.620473448954102</v>
@@ -31652,7 +31454,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.674687188998473</v>
+        <v>1.644810454645957</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.559105162729728</v>
@@ -31741,7 +31543,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.672561034686195</v>
+        <v>1.649164113015545</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.368385172872273</v>
@@ -31830,7 +31632,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.673913448896766</v>
+        <v>1.650717509079872</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.305091049176355</v>
@@ -31919,7 +31721,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.676241866773188</v>
+        <v>1.650019504825586</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.26814289972771</v>
@@ -32008,7 +31810,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.676146037440677</v>
+        <v>1.649986601703186</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.463343729744701</v>
@@ -32097,7 +31899,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.678352678029586</v>
+        <v>1.653622660495067</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.535745294359504</v>
@@ -32186,7 +31988,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.663294871009978</v>
+        <v>1.633768508883799</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.678082831455997</v>
@@ -32275,7 +32077,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.656932977110505</v>
+        <v>1.629819694287284</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.484778987390995</v>
@@ -32364,7 +32166,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.652009786114282</v>
+        <v>1.619999286759218</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.339149589694427</v>
@@ -32453,7 +32255,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.662862038535625</v>
+        <v>1.624426329750392</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.059185822080922</v>
@@ -32542,7 +32344,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.657556636253969</v>
+        <v>1.621438905891327</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.648331225093232</v>
@@ -32631,7 +32433,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.657752260915253</v>
+        <v>1.61499086704457</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.478214860171075</v>
@@ -32720,7 +32522,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.660629447306591</v>
+        <v>1.619534518800274</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.415012606302195</v>
@@ -32809,7 +32611,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.67223838443691</v>
+        <v>1.629199865432487</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.653880713105051</v>
@@ -32898,7 +32700,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.674774899087756</v>
+        <v>1.629386539546976</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.533163014218826</v>
@@ -32987,7 +32789,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.680873149392477</v>
+        <v>1.636483067109649</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.682912933273041</v>
@@ -33076,7 +32878,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.698417598595778</v>
+        <v>1.648046295739921</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.998799085104577</v>
@@ -33165,7 +32967,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.686361211501167</v>
+        <v>1.640466479821882</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.468383589702627</v>
@@ -33254,7 +33056,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.677841373559548</v>
+        <v>1.640062716700751</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.539986980066108</v>
@@ -33343,7 +33145,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.677685037959272</v>
+        <v>1.641254043181156</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.152169711721719</v>
@@ -33432,7 +33234,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.685493024934484</v>
+        <v>1.649621696367493</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.520698747400341</v>
@@ -33521,7 +33323,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.703925328617291</v>
+        <v>1.668213286281261</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.670103613255929</v>
@@ -33610,7 +33412,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.715917779296586</v>
+        <v>1.682067762020639</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.579075421130764</v>
@@ -33699,7 +33501,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.725973292704734</v>
+        <v>1.6954548352049</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.533996458485802</v>
@@ -33788,7 +33590,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.729550429590681</v>
+        <v>1.700749032874062</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.277016169433312</v>
@@ -33877,7 +33679,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.731266165146124</v>
+        <v>1.702903826487063</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.754684309697653</v>
@@ -33966,7 +33768,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.732383658334043</v>
+        <v>1.710579914512508</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.732455229555883</v>
@@ -34055,7 +33857,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.738091959775135</v>
+        <v>1.71628769441864</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.586568506082269</v>
@@ -34144,7 +33946,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.741905417054857</v>
+        <v>1.721527018435324</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.844552056460394</v>
@@ -34233,7 +34035,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.748478283575866</v>
+        <v>1.729801304768392</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.629776348387256</v>
@@ -34322,7 +34124,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.742773354591036</v>
+        <v>1.723210821708818</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.80401850815</v>
@@ -34411,7 +34213,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.730200288241398</v>
+        <v>1.712128196852314</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.831588132205021</v>
@@ -34500,7 +34302,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.737151170884539</v>
+        <v>1.713660363035609</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.24227081108954</v>
@@ -34589,7 +34391,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.746618395149823</v>
+        <v>1.722085203497468</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>4.136240069581153</v>
@@ -34875,7 +34677,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.774075754869655</v>
+        <v>1.777049118268188</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.60500778912655</v>
@@ -34964,7 +34766,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.775161941853489</v>
+        <v>1.780833635998011</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.212278106094452</v>
@@ -35053,7 +34855,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.786797497571222</v>
+        <v>1.798904977377668</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.410914835581146</v>
@@ -35142,7 +34944,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.787920487121229</v>
+        <v>1.800871714929719</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.637234377371849</v>
@@ -35231,7 +35033,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.791698842868568</v>
+        <v>1.808790819731349</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.465930297501413</v>
@@ -35320,7 +35122,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.797058111181096</v>
+        <v>1.813010906927985</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.454687410748956</v>
@@ -35409,7 +35211,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.798458718708311</v>
+        <v>1.816597236703454</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.409049443621766</v>
@@ -35498,7 +35300,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.824930538010727</v>
+        <v>1.837759653358753</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.950882746098718</v>
@@ -35587,7 +35389,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.828458267176352</v>
+        <v>1.842410666320754</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.760286412938683</v>
@@ -35676,7 +35478,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.841373157921432</v>
+        <v>1.849607203945164</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.786779570570106</v>
@@ -35765,7 +35567,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.852431114364111</v>
+        <v>1.856377662243811</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.545216736380173</v>
@@ -35854,7 +35656,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.851820495010111</v>
+        <v>1.85598432685258</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.035635016685737</v>
@@ -35943,7 +35745,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.860678750670634</v>
+        <v>1.863701554924973</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.972568381710329</v>
@@ -36032,7 +35834,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.863213768555965</v>
+        <v>1.868156067254392</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.394267040374828</v>
@@ -36121,7 +35923,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.861542556016334</v>
+        <v>1.866437192282716</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.032171662997198</v>
@@ -36210,7 +36012,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.860290650102699</v>
+        <v>1.860821751658288</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.619904801532936</v>
@@ -36299,7 +36101,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.87143329854123</v>
+        <v>1.876326911959598</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.296457366413224</v>
@@ -36388,7 +36190,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.869307549096836</v>
+        <v>1.876257331971005</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.688010715621641</v>
@@ -36477,7 +36279,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.867603210287055</v>
+        <v>1.873197701089243</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.503411369899136</v>
@@ -36566,7 +36368,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.863309033821871</v>
+        <v>1.866032992700159</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.352330915859746</v>
@@ -36655,7 +36457,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.85965638466647</v>
+        <v>1.856286456059191</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.612138142667795</v>
@@ -36744,7 +36546,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.851674442823572</v>
+        <v>1.848784050065957</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.451693522211634</v>
@@ -36833,7 +36635,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.848774490609752</v>
+        <v>1.848778138224469</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.044435349080696</v>
@@ -36922,7 +36724,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.857086178028359</v>
+        <v>1.857003930822837</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.683512627524226</v>
@@ -37011,7 +36813,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.851777849637839</v>
+        <v>1.856889247748876</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.668083269325396</v>
@@ -37100,7 +36902,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.840457567491284</v>
+        <v>1.85416196430867</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.666983619885615</v>
@@ -37189,7 +36991,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.845229912414211</v>
+        <v>1.861403120233528</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.646844586938837</v>
@@ -37278,7 +37080,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.855544902843419</v>
+        <v>1.871772027660938</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.501882426221736</v>
@@ -37367,7 +37169,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.861890505440154</v>
+        <v>1.877704732120904</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.87573082613074</v>
@@ -37456,7 +37258,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.869885973486971</v>
+        <v>1.888071308445356</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.456008646819838</v>
@@ -37545,7 +37347,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.870220064177547</v>
+        <v>1.890824645395297</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.619456770196047</v>
@@ -37634,7 +37436,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.864574069369517</v>
+        <v>1.884719098905506</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.668640207389669</v>
@@ -37723,7 +37525,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.866976342936167</v>
+        <v>1.887535395484213</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.706253333235086</v>
@@ -37812,7 +37614,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.865701235448152</v>
+        <v>1.886758914766035</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.503228300797847</v>
@@ -37901,7 +37703,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.868160968338777</v>
+        <v>1.89099179833461</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.012105456105941</v>
@@ -37990,7 +37792,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.871003445098445</v>
+        <v>1.898260450502153</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.979084059160206</v>
@@ -38079,7 +37881,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.876866734554185</v>
+        <v>1.901753343714141</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.704281163455106</v>
@@ -38168,7 +37970,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.882636805441973</v>
+        <v>1.907112685915316</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.788788321170801</v>
@@ -38257,7 +38059,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.881857469600539</v>
+        <v>1.902855891213978</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.678894310872006</v>
@@ -38346,7 +38148,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.875212526703184</v>
+        <v>1.893784800033583</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.978933874815206</v>
@@ -38435,7 +38237,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.881417096047643</v>
+        <v>1.899553392960255</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.981591629594434</v>
@@ -38524,7 +38326,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.878980494963442</v>
+        <v>1.896416545018285</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.369445766548435</v>
@@ -38613,7 +38415,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.869965156553564</v>
+        <v>1.889255892754338</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.995289287410111</v>
@@ -38702,7 +38504,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.868141950866045</v>
+        <v>1.886042848515886</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.598428197108066</v>
@@ -38791,7 +38593,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.870253897304875</v>
+        <v>1.885917438918139</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.89812785283299</v>
@@ -38880,7 +38682,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.851376294377687</v>
+        <v>1.869776596661216</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.41923613766531</v>
@@ -38969,7 +38771,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.852820603311104</v>
+        <v>1.871246430931532</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.333713236989717</v>
@@ -39058,7 +38860,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.848975079509616</v>
+        <v>1.866601388955512</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.755915912552493</v>
@@ -39147,7 +38949,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.848398914598699</v>
+        <v>1.867119794672135</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.054962061887542</v>
@@ -39236,7 +39038,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.841877777278271</v>
+        <v>1.864027131875875</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.309845666166088</v>
@@ -39325,7 +39127,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.840260240702282</v>
+        <v>1.861404227910474</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.972161415423985</v>
@@ -39414,7 +39216,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.84633230641456</v>
+        <v>1.869745610502906</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.579090449853535</v>
@@ -39503,7 +39305,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.8497047364691</v>
+        <v>1.87485334469494</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.290233518612634</v>
@@ -39592,7 +39394,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.854882202860983</v>
+        <v>1.884986124378895</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.641837979803293</v>
@@ -39681,7 +39483,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.868829684929003</v>
+        <v>1.897780433848868</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.174882071801554</v>
@@ -39770,7 +39572,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.871715812148606</v>
+        <v>1.89958100599058</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.359474400839174</v>
@@ -39859,7 +39661,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.877234575852537</v>
+        <v>1.9046392585034</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.2528401213591</v>
@@ -39948,7 +39750,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.87925709001635</v>
+        <v>1.903990898668289</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.413128303262392</v>
@@ -40037,7 +39839,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.882006563485871</v>
+        <v>1.906259143489499</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.190154562478959</v>
@@ -40126,7 +39928,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.840020043356823</v>
+        <v>1.875554933024728</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.849286574054602</v>
@@ -40215,7 +40017,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.839837785636711</v>
+        <v>1.875958875228438</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.840233460177086</v>
@@ -40304,7 +40106,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.830197981015317</v>
+        <v>1.868978113434341</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.878037684748467</v>
@@ -40393,7 +40195,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.832099256426621</v>
+        <v>1.870378818456249</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.828267315933195</v>
@@ -40482,7 +40284,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.840554290880299</v>
+        <v>1.877506664725628</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.006402710759691</v>
@@ -40571,7 +40373,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.857812823661744</v>
+        <v>1.89496017652866</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.055038145563794</v>
@@ -40660,7 +40462,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.860215754990098</v>
+        <v>1.894111107314816</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.921552946823096</v>
@@ -40749,7 +40551,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.851910553720378</v>
+        <v>1.886578622834616</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.354375692651887</v>
@@ -40838,7 +40640,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.834403134479641</v>
+        <v>1.871372724257892</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.074613093478106</v>
@@ -40927,7 +40729,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.846311201190804</v>
+        <v>1.881704604916736</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.232125270034417</v>
@@ -41016,7 +40818,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.857796510880265</v>
+        <v>1.893203737334045</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.08413181945446</v>
@@ -41105,7 +40907,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.868578830950391</v>
+        <v>1.902516845124643</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.279042635198174</v>
@@ -41194,7 +40996,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.866010270388798</v>
+        <v>1.900731032541136</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.266704505618039</v>
@@ -41283,7 +41085,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.863384604884748</v>
+        <v>1.901166566690529</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.506054732389968</v>
@@ -41372,7 +41174,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.869387770363463</v>
+        <v>1.906204461179643</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.332161341284499</v>
@@ -41461,7 +41263,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.896439817532306</v>
+        <v>1.925747926638827</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.535583837966454</v>
@@ -41550,7 +41352,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.905336325299041</v>
+        <v>1.930851918059267</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>4.337241288607386</v>
@@ -41836,7 +41638,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.251870157036164</v>
+        <v>1.234086661328847</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.299365261818186</v>
@@ -41925,7 +41727,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.249150637997701</v>
+        <v>1.22837505135369</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.263406139825047</v>
@@ -42014,7 +41816,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.254539523738376</v>
+        <v>1.228192770180219</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.040277291287693</v>
@@ -42103,7 +41905,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.259579115774383</v>
+        <v>1.239577806902865</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.094460358796245</v>
@@ -42192,7 +41994,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.278313526302012</v>
+        <v>1.255854031585835</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.116602579109176</v>
@@ -42281,7 +42083,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.270117005457815</v>
+        <v>1.253335039526943</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.132256527095458</v>
@@ -42370,7 +42172,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.264404420075462</v>
+        <v>1.248025633568446</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.163131693377276</v>
@@ -42459,7 +42261,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.27427900759208</v>
+        <v>1.255182900682306</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.257768615377226</v>
@@ -42548,7 +42350,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.252384712414425</v>
+        <v>1.23429685145796</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.202168515302827</v>
@@ -42637,7 +42439,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.239077309212578</v>
+        <v>1.218201104019</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.294053223563282</v>
@@ -42726,7 +42528,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.242877149615555</v>
+        <v>1.220201598092463</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.157031716202529</v>
@@ -42815,7 +42617,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.232084139362806</v>
+        <v>1.209192243386617</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.24444534052685</v>
@@ -42904,7 +42706,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.231839747087558</v>
+        <v>1.20715570259845</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.149830662386834</v>
@@ -42993,7 +42795,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.23946368885628</v>
+        <v>1.215694638933252</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.219202714616988</v>
@@ -43082,7 +42884,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.242328200847187</v>
+        <v>1.219643719642601</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.217627857616465</v>
@@ -43171,7 +42973,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.246626306625367</v>
+        <v>1.225241868450629</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.152101718288143</v>
@@ -43260,7 +43062,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.261459341605881</v>
+        <v>1.242401425613634</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.081106010848289</v>
@@ -43349,7 +43151,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.251939650249801</v>
+        <v>1.231833764228607</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.158749544867896</v>
@@ -43438,7 +43240,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.230769434527072</v>
+        <v>1.205629865824345</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.274299800248562</v>
@@ -43527,7 +43329,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.231693438131652</v>
+        <v>1.208019383628979</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.159518007283539</v>
@@ -43616,7 +43418,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.240584937802155</v>
+        <v>1.215371647987358</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.108278558274343</v>
@@ -43705,7 +43507,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.25087341729576</v>
+        <v>1.227542529913764</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.249097104831026</v>
@@ -43794,7 +43596,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.257411154037182</v>
+        <v>1.229617008273426</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.124320918020214</v>
@@ -43883,7 +43685,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.269326971413361</v>
+        <v>1.248951305789105</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.456334744805476</v>
@@ -43972,7 +43774,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.287491553667166</v>
+        <v>1.273141806737736</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.304622341481672</v>
@@ -44061,7 +43863,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.300078087160712</v>
+        <v>1.283239352963722</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.143374536349514</v>
@@ -44150,7 +43952,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.291674000118787</v>
+        <v>1.282640620885615</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.390667980044871</v>
@@ -44239,7 +44041,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.296704421184713</v>
+        <v>1.287632845435406</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.326823536942269</v>
@@ -44328,7 +44130,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.308419402613577</v>
+        <v>1.303326831040245</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.307674973043912</v>
@@ -44417,7 +44219,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.318367291867855</v>
+        <v>1.31284910188966</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.271821354100737</v>
@@ -44506,7 +44308,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.312376279380401</v>
+        <v>1.307336566739073</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.352695238299929</v>
@@ -44595,7 +44397,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.315779154335643</v>
+        <v>1.312359800048525</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.344302467670471</v>
@@ -44684,7 +44486,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.352012774986259</v>
+        <v>1.34606954266221</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.199449605937742</v>
@@ -44773,7 +44575,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.378099720415988</v>
+        <v>1.374767414429952</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.22632853481012</v>
@@ -44862,7 +44664,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.384296350647657</v>
+        <v>1.388234137544521</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.374614482145216</v>
@@ -44951,7 +44753,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.389414243182448</v>
+        <v>1.393479823927742</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.391875541275961</v>
@@ -45040,7 +44842,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.404272540107379</v>
+        <v>1.403359711912558</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.216311080645329</v>
@@ -45129,7 +44931,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.429422418699974</v>
+        <v>1.438208930660479</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.293716032286491</v>
@@ -45218,7 +45020,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.420459048062951</v>
+        <v>1.426056919623035</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.416803411088874</v>
@@ -45307,7 +45109,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.398032123563894</v>
+        <v>1.399030088824917</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.266041202544499</v>
@@ -45396,7 +45198,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.418300896766479</v>
+        <v>1.417053023651732</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.336500751828757</v>
@@ -45485,7 +45287,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.421192474629615</v>
+        <v>1.421714052107508</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.412020180859786</v>
@@ -45574,7 +45376,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.411620975655482</v>
+        <v>1.41567311417079</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.389623298505617</v>
@@ -45663,7 +45465,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.377138953146069</v>
+        <v>1.375981452381308</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.340448525499805</v>
@@ -45752,7 +45554,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.355623480228573</v>
+        <v>1.352726095574572</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.260345222747443</v>
@@ -45841,7 +45643,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.353564865371479</v>
+        <v>1.344913835718591</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.320634830201199</v>
@@ -45930,7 +45732,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.325087666939204</v>
+        <v>1.321277889400904</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.215080295800141</v>
@@ -46019,7 +45821,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.305069687638055</v>
+        <v>1.2992265101474</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.284268184182773</v>
@@ -46108,7 +45910,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.284659940083319</v>
+        <v>1.27250945360758</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.1663901142679</v>
@@ -46197,7 +45999,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.261016646080438</v>
+        <v>1.251325953591354</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.312777167382623</v>
@@ -46286,7 +46088,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.257710470080229</v>
+        <v>1.249140296305893</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.272995886109303</v>
@@ -46375,7 +46177,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.268573290799836</v>
+        <v>1.255256117879001</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.297685798827945</v>
@@ -46464,7 +46266,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.253665932177875</v>
+        <v>1.245610357994439</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.353285330566854</v>
@@ -46553,7 +46355,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.245534274298729</v>
+        <v>1.237725291231579</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.376465785095851</v>
@@ -46642,7 +46444,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.245032350729921</v>
+        <v>1.235234741051884</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.286578350796912</v>
@@ -46731,7 +46533,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.248742213571854</v>
+        <v>1.2363790666137</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.35815779671283</v>
@@ -46820,7 +46622,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.253303357308755</v>
+        <v>1.244488657523791</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.318385339308459</v>
@@ -46909,7 +46711,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.262886582294512</v>
+        <v>1.25339217294137</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.19297565564218</v>
@@ -46998,7 +46800,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.277783187362263</v>
+        <v>1.269419450810322</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.211208460465815</v>
@@ -47087,7 +46889,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.307152599715224</v>
+        <v>1.304922607161455</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.230905435185681</v>
@@ -47176,7 +46978,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.317347259818536</v>
+        <v>1.315779080055566</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.252023236922132</v>
@@ -47265,7 +47067,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.326292021315675</v>
+        <v>1.321468600077277</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.452162333868177</v>
@@ -47354,7 +47156,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.342734892595613</v>
+        <v>1.343818216882411</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.238636267468436</v>
@@ -47443,7 +47245,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.382843246938131</v>
+        <v>1.387359316039695</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.204153535382797</v>
@@ -47532,7 +47334,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.431716464546021</v>
+        <v>1.440729829582763</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.302325164911513</v>
@@ -47621,7 +47423,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.463041296593258</v>
+        <v>1.47550334171656</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.491109908368708</v>
@@ -47710,7 +47512,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.47228026613439</v>
+        <v>1.486604764874713</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.540993850678012</v>
@@ -47799,7 +47601,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.469368078450081</v>
+        <v>1.481800329266864</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.427691606916666</v>
@@ -47888,7 +47690,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.49602961395529</v>
+        <v>1.512409326200354</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.374233161993832</v>
@@ -47977,7 +47779,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.531397126726276</v>
+        <v>1.549637062241692</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.35012489019812</v>
@@ -48066,7 +47868,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.583283977135905</v>
+        <v>1.595986668483566</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.339103329692514</v>
@@ -48155,7 +47957,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.573963632644035</v>
+        <v>1.593774324897601</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.487487384255444</v>
@@ -48244,7 +48046,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.554382102979202</v>
+        <v>1.575843033012371</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.540842423315376</v>
@@ -48333,7 +48135,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.576007731934849</v>
+        <v>1.598394432926177</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.492802133184546</v>
@@ -48422,7 +48224,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.575499945548317</v>
+        <v>1.597607005131453</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.518652068253638</v>
@@ -48511,7 +48313,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.599762481437439</v>
+        <v>1.619341617530955</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.406781791631833</v>
